--- a/多零件预算报告.xlsx
+++ b/多零件预算报告.xlsx
@@ -19,7 +19,7 @@
     <t>多零件合并打印预算报告</t>
   </si>
   <si>
-    <t>生成时间：2025-04-13 01:17</t>
+    <t>生成时间：2025-04-13 13:55</t>
   </si>
   <si>
     <t>输入参数</t>
